--- a/assets/functions.xlsx
+++ b/assets/functions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\nate\coding\excel\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/User/coding/excel/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73073B8C-65D8-4DE2-8D2B-86AB637B90B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D764A4-6EF7-124B-A449-52D04F008A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{473E1066-2865-44AB-87BD-B0A68C4D514D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{473E1066-2865-44AB-87BD-B0A68C4D514D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>INDEX-MATCH-MATCH</t>
   </si>
@@ -65,6 +64,9 @@
   </si>
   <si>
     <t>z</t>
+  </si>
+  <si>
+    <t>SUMIFS</t>
   </si>
 </sst>
 </file>
@@ -419,15 +421,15 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="19.53125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -441,7 +443,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -461,7 +463,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -488,7 +490,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -508,7 +510,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -527,8 +529,15 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <f>SUMIFS(B2:B6, A2:A6, "b")</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>

--- a/assets/functions.xlsx
+++ b/assets/functions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/User/coding/excel/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D764A4-6EF7-124B-A449-52D04F008A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD47322-2B9C-9D45-B43A-55EEE06629D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{473E1066-2865-44AB-87BD-B0A68C4D514D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>INDEX-MATCH-MATCH</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>SUMIFS</t>
+  </si>
+  <si>
+    <t>XIRR</t>
   </si>
 </sst>
 </file>
@@ -102,8 +105,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62DC6C8D-FF2C-47D0-94D6-805BBD3695A5}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -509,6 +513,13 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <f>XIRR(B11:F11, B10:F10)</f>
+        <v>0.3340176999568939</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -555,6 +566,45 @@
       <c r="E6">
         <f t="shared" si="1"/>
         <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <f>DATE(2022,1,1)</f>
+        <v>44562</v>
+      </c>
+      <c r="C10" s="1">
+        <f>EOMONTH(B10, 12)</f>
+        <v>44957</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" ref="D10:F10" si="3">EOMONTH(C10, 12)</f>
+        <v>45322</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="3"/>
+        <v>45688</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="3"/>
+        <v>46053</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>-10</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/assets/functions.xlsx
+++ b/assets/functions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/User/coding/excel/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD47322-2B9C-9D45-B43A-55EEE06629D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C90FA5-96B3-F74D-A8B3-10EC7D66C5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{473E1066-2865-44AB-87BD-B0A68C4D514D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>INDEX-MATCH-MATCH</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>XIRR</t>
+  </si>
+  <si>
+    <t>OFFSET</t>
   </si>
 </sst>
 </file>
@@ -425,7 +428,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -567,6 +570,13 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <f ca="1">OFFSET(B11, -5, 1)</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="1">

--- a/assets/functions.xlsx
+++ b/assets/functions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/User/coding/excel/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C90FA5-96B3-F74D-A8B3-10EC7D66C5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222628B4-CE08-F74F-A403-40E9649207E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{473E1066-2865-44AB-87BD-B0A68C4D514D}"/>
   </bookViews>
@@ -428,7 +428,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/assets/functions.xlsx
+++ b/assets/functions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/User/coding/excel/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222628B4-CE08-F74F-A403-40E9649207E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B8AE5C-514E-B34F-AA4E-E93458BD8D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{473E1066-2865-44AB-87BD-B0A68C4D514D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>INDEX-MATCH-MATCH</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>OFFSET</t>
+  </si>
+  <si>
+    <t>XNPV</t>
   </si>
 </sst>
 </file>
@@ -428,7 +431,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -578,6 +581,15 @@
         <v>10</v>
       </c>
     </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7">
+        <f>XNPV(0.05, B11:F11, B10:F10)</f>
+        <v>7.6576732866908932</v>
+      </c>
+    </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <f>DATE(2022,1,1)</f>

--- a/assets/functions.xlsx
+++ b/assets/functions.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/User/coding/excel/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B8AE5C-514E-B34F-AA4E-E93458BD8D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD57F05-D803-544B-9A8D-B6F2E44008F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{473E1066-2865-44AB-87BD-B0A68C4D514D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateCount="500"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>INDEX-MATCH-MATCH</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>XNPV</t>
+  </si>
+  <si>
+    <t>AVERAGEIFS</t>
   </si>
 </sst>
 </file>
@@ -431,7 +434,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -590,6 +593,15 @@
         <v>7.6576732866908932</v>
       </c>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <f>AVERAGEIFS(B2:B6, A2:A6, "b")</f>
+        <v>2</v>
+      </c>
+    </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <f>DATE(2022,1,1)</f>

--- a/assets/functions.xlsx
+++ b/assets/functions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/User/coding/excel/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/User/coding/excel-emulator/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD57F05-D803-544B-9A8D-B6F2E44008F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E32007-3111-FA49-9F48-1E5EC8790869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{473E1066-2865-44AB-87BD-B0A68C4D514D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>INDEX-MATCH-MATCH</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>AVERAGEIFS</t>
+  </si>
+  <si>
+    <t>SUMPRODUCT</t>
   </si>
 </sst>
 </file>
@@ -434,7 +437,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -602,6 +605,15 @@
         <v>2</v>
       </c>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9">
+        <f>SUMPRODUCT(C2:C6,D2:D6)</f>
+        <v>530</v>
+      </c>
+    </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <f>DATE(2022,1,1)</f>
